--- a/data_structure/SqList/test.xlsx
+++ b/data_structure/SqList/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="58540" yWindow="-3160" windowWidth="17800" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="31140" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -50,18 +53,12 @@
     <t>操作序号</t>
   </si>
   <si>
-    <t>SqList_init</t>
-  </si>
-  <si>
     <t>---</t>
   </si>
   <si>
     <t>线性表创建成功！</t>
   </si>
   <si>
-    <t>SqList_traverse</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>初始值</t>
   </si>
   <si>
-    <t>SqList_clear</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
     <t>无改动</t>
   </si>
   <si>
-    <t>SqList_empty</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -95,18 +86,12 @@
     <t>线性表不为空表！</t>
   </si>
   <si>
-    <t>SqList_length</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
     <t>线性表表长为 0 。</t>
   </si>
   <si>
-    <t>SqList_insert</t>
-  </si>
-  <si>
     <t>1 132</t>
   </si>
   <si>
@@ -143,18 +128,12 @@
     <t>线性表表长为 3 。</t>
   </si>
   <si>
-    <t>SqList_getElem</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
     <t>该元素值为 233 。</t>
   </si>
   <si>
-    <t>SqList_locateElem</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -179,9 +158,6 @@
     <t>该元素不在线性表中！</t>
   </si>
   <si>
-    <t>SqList_priorElem</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -197,9 +173,6 @@
     <t>目标元素值为 666 。</t>
   </si>
   <si>
-    <t>SqList_nextElem</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -209,9 +182,6 @@
     <t>16</t>
   </si>
   <si>
-    <t>SqList_delete</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
@@ -227,27 +197,18 @@
     <t>18</t>
   </si>
   <si>
-    <t>SqList_writeToFile</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
     <t>成功写入文件！</t>
   </si>
   <si>
-    <t>SqList_selectList</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
     <t>切换操作表成功！</t>
   </si>
   <si>
-    <t>SqList_readFromFile</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -255,6 +216,48 @@
   </si>
   <si>
     <t>线性表还没有被创建！获取线性表表长失败！</t>
+  </si>
+  <si>
+    <t>ListLength</t>
+  </si>
+  <si>
+    <t>IntiaList</t>
+  </si>
+  <si>
+    <t>ListEmpty</t>
+  </si>
+  <si>
+    <t>ListInsert</t>
+  </si>
+  <si>
+    <t>GetElem</t>
+  </si>
+  <si>
+    <t>LocateElem</t>
+  </si>
+  <si>
+    <t>PriorElem</t>
+  </si>
+  <si>
+    <t>NextElem</t>
+  </si>
+  <si>
+    <t>ListDelete</t>
+  </si>
+  <si>
+    <t>ListTrabverse</t>
+  </si>
+  <si>
+    <t>SaveList</t>
+  </si>
+  <si>
+    <t>LoadList</t>
+  </si>
+  <si>
+    <t>ClearList</t>
+  </si>
+  <si>
+    <t>SelectList</t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -726,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection sqref="A1:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -778,442 +781,442 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="F8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="D9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B23" s="6">
         <v>21</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="F23" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24" s="6">
         <v>22</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -1362,19 +1365,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="A7:A9"/>
@@ -1385,6 +1375,19 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
